--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9819286329486</v>
+        <v>202.140040392119</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9450179458137</v>
+        <v>276.5769210535659</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6176337770277</v>
+        <v>250.1808078864414</v>
       </c>
       <c r="AD2" t="n">
-        <v>170981.9286329486</v>
+        <v>202140.040392119</v>
       </c>
       <c r="AE2" t="n">
-        <v>233945.0179458137</v>
+        <v>276576.9210535659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.341666446988023e-06</v>
+        <v>7.339802545628722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211617.6337770277</v>
+        <v>250180.8078864414</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.45002446876478</v>
+        <v>99.19365202335453</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.3387844489378</v>
+        <v>135.7211308133734</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.09452151208866</v>
+        <v>122.7680965743848</v>
       </c>
       <c r="AD3" t="n">
-        <v>78450.02446876478</v>
+        <v>99193.65202335453</v>
       </c>
       <c r="AE3" t="n">
-        <v>107338.7844489378</v>
+        <v>135721.1308133734</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.764515018997603e-06</v>
+        <v>1.143574826915286e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.995833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97094.52151208866</v>
+        <v>122768.0965743848</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.25800795759208</v>
+        <v>99.00163551218182</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.0760589871809</v>
+        <v>135.4584053516164</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.85687019966417</v>
+        <v>122.5304452619603</v>
       </c>
       <c r="AD4" t="n">
-        <v>78258.00795759208</v>
+        <v>99001.63551218182</v>
       </c>
       <c r="AE4" t="n">
-        <v>107076.0589871809</v>
+        <v>135458.4053516164</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.795442517628746e-06</v>
+        <v>1.14880327400938e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.981944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>96856.87019966418</v>
+        <v>122530.4452619603</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.1415907987848</v>
+        <v>122.3227264865048</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7546306997951</v>
+        <v>167.36735087659</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.4166448927004</v>
+        <v>151.3940458105269</v>
       </c>
       <c r="AD2" t="n">
-        <v>102141.5907987848</v>
+        <v>122322.7264865048</v>
       </c>
       <c r="AE2" t="n">
-        <v>139754.6306997951</v>
+        <v>167367.35087659</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.920260195639964e-06</v>
+        <v>1.02526533687694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.540277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>126416.6448927004</v>
+        <v>151394.0458105269</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.79442731552594</v>
+        <v>96.88508466793702</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.7559645529431</v>
+        <v>132.562447110889</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.4220619710842</v>
+        <v>119.9108732112241</v>
       </c>
       <c r="AD3" t="n">
-        <v>86794.42731552594</v>
+        <v>96885.08466793702</v>
       </c>
       <c r="AE3" t="n">
-        <v>118755.9645529431</v>
+        <v>132562.447110889</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.759349815251941e-06</v>
+        <v>1.170578122648583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.101388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>107422.0619710842</v>
+        <v>119910.8732112241</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.54607001787278</v>
+        <v>118.7214851468753</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.2573717259721</v>
+        <v>162.4399736001564</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.3029839683036</v>
+        <v>146.9369305057371</v>
       </c>
       <c r="AD2" t="n">
-        <v>91546.07001787279</v>
+        <v>118721.4851468753</v>
       </c>
       <c r="AE2" t="n">
-        <v>125257.3717259721</v>
+        <v>162439.9736001564</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894828016129479e-06</v>
+        <v>1.115428311290453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.968055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>113302.9839683036</v>
+        <v>146936.9305057371</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.00107599708308</v>
+        <v>105.8237453544355</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0387103957458</v>
+        <v>144.7927170080281</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6778229474862</v>
+        <v>130.9739033146758</v>
       </c>
       <c r="AD2" t="n">
-        <v>87001.07599708308</v>
+        <v>105823.7453544355</v>
       </c>
       <c r="AE2" t="n">
-        <v>119038.7103957458</v>
+        <v>144792.7170080281</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.403182115073802e-06</v>
+        <v>1.166520720399685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.494444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>107677.8229474862</v>
+        <v>130973.9033146758</v>
       </c>
     </row>
     <row r="3">
@@ -3067,28 +3067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.30248592251492</v>
+        <v>106.1251552798674</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4511127529889</v>
+        <v>145.2051193652712</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0508662025645</v>
+        <v>131.346946569754</v>
       </c>
       <c r="AD3" t="n">
-        <v>87302.48592251491</v>
+        <v>106125.1552798674</v>
       </c>
       <c r="AE3" t="n">
-        <v>119451.1127529889</v>
+        <v>145205.1193652712</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.403665422736087e-06</v>
+        <v>1.16660876855953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.494444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>108050.8662025645</v>
+        <v>131346.946569754</v>
       </c>
     </row>
   </sheetData>
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8431112301832</v>
+        <v>126.5337520188892</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.9239466042452</v>
+        <v>173.1290617873304</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.7108541564484</v>
+        <v>156.6058671185602</v>
       </c>
       <c r="AD2" t="n">
-        <v>108843.1112301832</v>
+        <v>126533.7520188892</v>
       </c>
       <c r="AE2" t="n">
-        <v>148923.9466042452</v>
+        <v>173129.0617873304</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.274023699895177e-06</v>
+        <v>1.033538715889194e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.605555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>134710.8541564484</v>
+        <v>156605.8671185602</v>
       </c>
     </row>
   </sheetData>
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.881368632371</v>
+        <v>134.2327816124028</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8175126541444</v>
+        <v>183.6632137343844</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9465079377281</v>
+        <v>166.1346543885657</v>
       </c>
       <c r="AD2" t="n">
-        <v>113881.368632371</v>
+        <v>134232.7816124028</v>
       </c>
       <c r="AE2" t="n">
-        <v>155817.5126541444</v>
+        <v>183663.2137343844</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.478373166595458e-06</v>
+        <v>9.425438079645517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140946.5079377281</v>
+        <v>166134.6543885657</v>
       </c>
     </row>
     <row r="3">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.12707833838436</v>
+        <v>97.30287433695135</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.2111123579451</v>
+        <v>133.1340853676135</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.8337711083809</v>
+        <v>120.4279551150263</v>
       </c>
       <c r="AD3" t="n">
-        <v>87127.07833838437</v>
+        <v>97302.87433695135</v>
       </c>
       <c r="AE3" t="n">
-        <v>119211.1123579451</v>
+        <v>133134.0853676135</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.777149922771132e-06</v>
+        <v>1.165995908110993e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.065277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>107833.7711083809</v>
+        <v>120427.9551150263</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.8728581072268</v>
+        <v>143.1078985816202</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.2247975808128</v>
+        <v>195.8065403141885</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.7879046187695</v>
+        <v>177.1190389228631</v>
       </c>
       <c r="AD2" t="n">
-        <v>125872.8581072268</v>
+        <v>143107.8985816202</v>
       </c>
       <c r="AE2" t="n">
-        <v>172224.7975808128</v>
+        <v>195806.5403141885</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.804536398560702e-06</v>
+        <v>9.631463746156561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>155787.9046187695</v>
+        <v>177119.0389228631</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.60051879074113</v>
+        <v>96.41486004360699</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.4906503546923</v>
+        <v>131.9190650350346</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.1820689875435</v>
+        <v>119.3288946176967</v>
       </c>
       <c r="AD2" t="n">
-        <v>86600.51879074113</v>
+        <v>96414.860043607</v>
       </c>
       <c r="AE2" t="n">
-        <v>118490.6503546923</v>
+        <v>131919.0650350346</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.612196332146253e-06</v>
+        <v>1.17106910360418e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107182.0689875435</v>
+        <v>119328.8946176967</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.17653336888168</v>
+        <v>95.99087462174752</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.9105347955878</v>
+        <v>131.3389494759301</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.6573188432025</v>
+        <v>118.8041444733556</v>
       </c>
       <c r="AD3" t="n">
-        <v>86176.53336888168</v>
+        <v>95990.87462174753</v>
       </c>
       <c r="AE3" t="n">
-        <v>117910.5347955878</v>
+        <v>131338.9494759301</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.65837675097394e-06</v>
+        <v>1.179247998930939e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.243055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>106657.3188432025</v>
+        <v>118804.1444733556</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.211964279863</v>
+        <v>114.0457554669218</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9049658661795</v>
+        <v>156.0424339734122</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6024568432013</v>
+        <v>141.149963081964</v>
       </c>
       <c r="AD2" t="n">
-        <v>94211.96427986299</v>
+        <v>114045.7554669218</v>
       </c>
       <c r="AE2" t="n">
-        <v>128904.9658661795</v>
+        <v>156042.4339734121</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.266260758423982e-06</v>
+        <v>1.09278115977877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.376388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>116602.4568432013</v>
+        <v>141149.963081964</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.59782531717239</v>
+        <v>96.60010651954894</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.4869650253279</v>
+        <v>132.172527435916</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.1787353808413</v>
+        <v>119.5581669227747</v>
       </c>
       <c r="AD3" t="n">
-        <v>86597.82531717239</v>
+        <v>96600.10651954895</v>
       </c>
       <c r="AE3" t="n">
-        <v>118486.9650253279</v>
+        <v>132172.527435916</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.72361202138352e-06</v>
+        <v>1.172539226484074e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.147222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>107178.7353808413</v>
+        <v>119558.1669227747</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.6358207539015</v>
+        <v>173.2254200555793</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.8430637725571</v>
+        <v>237.0146618861118</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9113748792448</v>
+        <v>214.394315207937</v>
       </c>
       <c r="AD2" t="n">
-        <v>152635.8207539015</v>
+        <v>173225.4200555793</v>
       </c>
       <c r="AE2" t="n">
-        <v>208843.0637725571</v>
+        <v>237014.6618861118</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.705914352525328e-06</v>
+        <v>7.999742508330998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>188911.3748792448</v>
+        <v>214394.315207937</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.18262083522743</v>
+        <v>97.77213062835425</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6046668836308</v>
+        <v>133.7761425276371</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.52590569336468</v>
+        <v>121.0087352408304</v>
       </c>
       <c r="AD3" t="n">
-        <v>77182.62083522743</v>
+        <v>97772.13062835425</v>
       </c>
       <c r="AE3" t="n">
-        <v>105604.6668836308</v>
+        <v>133776.1425276371</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.8266785795149e-06</v>
+        <v>1.160490113764009e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>95525.90569336468</v>
+        <v>121008.7352408304</v>
       </c>
     </row>
   </sheetData>
@@ -5570,28 +5570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.6988400376174</v>
+        <v>105.7445405593329</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.6251778222956</v>
+        <v>144.6843455130998</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.3037573424493</v>
+        <v>130.875874643123</v>
       </c>
       <c r="AD2" t="n">
-        <v>86698.8400376174</v>
+        <v>105744.5405593329</v>
       </c>
       <c r="AE2" t="n">
-        <v>118625.1778222956</v>
+        <v>144684.3455130998</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.489607062137703e-06</v>
+        <v>1.17022972332761e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.404166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107303.7573424493</v>
+        <v>130875.874643123</v>
       </c>
     </row>
     <row r="3">
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.61566023111567</v>
+        <v>105.6613607528312</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5113675414059</v>
+        <v>144.5705352322101</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.200808955034</v>
+        <v>130.7729262557077</v>
       </c>
       <c r="AD3" t="n">
-        <v>86615.66023111567</v>
+        <v>105661.3607528312</v>
       </c>
       <c r="AE3" t="n">
-        <v>118511.3675414059</v>
+        <v>144570.5352322101</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.513947264635854e-06</v>
+        <v>1.174618837824438e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.391666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107200.808955034</v>
+        <v>130772.9262557077</v>
       </c>
     </row>
   </sheetData>
@@ -5973,28 +5973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.61877930121031</v>
+        <v>108.1222203001626</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.6203675413702</v>
+        <v>147.9375918303282</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9176517620207</v>
+        <v>133.8186356977961</v>
       </c>
       <c r="AD2" t="n">
-        <v>89618.77930121031</v>
+        <v>108122.2203001626</v>
       </c>
       <c r="AE2" t="n">
-        <v>122620.3675413702</v>
+        <v>147937.5918303282</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.095832895095005e-06</v>
+        <v>1.137287569353097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>110917.6517620207</v>
+        <v>133818.6356977961</v>
       </c>
     </row>
     <row r="3">
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.70438013652225</v>
+        <v>108.2078211354745</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.7374903806862</v>
+        <v>148.0547146696443</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.0235965619354</v>
+        <v>133.9245804977108</v>
       </c>
       <c r="AD3" t="n">
-        <v>89704.38013652225</v>
+        <v>108207.8211354745</v>
       </c>
       <c r="AE3" t="n">
-        <v>122737.4903806862</v>
+        <v>148054.7146696443</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.113730134531466e-06</v>
+        <v>1.14062662215968e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.765277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>111023.5965619354</v>
+        <v>133924.5804977108</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8071188858593</v>
+        <v>121.6555128328239</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0334797064426</v>
+        <v>166.4544397202352</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4780037485388</v>
+        <v>150.5682616136556</v>
       </c>
       <c r="AD2" t="n">
-        <v>103807.1188858593</v>
+        <v>121655.5128328239</v>
       </c>
       <c r="AE2" t="n">
-        <v>142033.4797064427</v>
+        <v>166454.4397202352</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629587935976589e-06</v>
+        <v>1.082590636631383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128478.0037485388</v>
+        <v>150568.2616136555</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7204134357718</v>
+        <v>174.8413623400588</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8540748612007</v>
+        <v>239.2256654100776</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3030894710058</v>
+        <v>216.3943036587392</v>
       </c>
       <c r="AD2" t="n">
-        <v>149720.4134357718</v>
+        <v>174841.3623400588</v>
       </c>
       <c r="AE2" t="n">
-        <v>204854.0748612007</v>
+        <v>239225.6654100776</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.143661812090761e-06</v>
+        <v>8.546714041575114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185303.0894710058</v>
+        <v>216394.3036587392</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.81586080290462</v>
+        <v>98.72617628164292</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5217790297247</v>
+        <v>135.0815098799897</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9239109960477</v>
+        <v>122.1895201651694</v>
       </c>
       <c r="AD2" t="n">
-        <v>88815.86080290463</v>
+        <v>98726.17628164293</v>
       </c>
       <c r="AE2" t="n">
-        <v>121521.7790297247</v>
+        <v>135081.5098799897</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.524384498392483e-06</v>
+        <v>1.146308619121914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>109923.9109960477</v>
+        <v>122189.5201651694</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.1767448917599</v>
+        <v>96.08706037049819</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.9108242105215</v>
+        <v>131.4705550607865</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.6575806367811</v>
+        <v>118.9231898059029</v>
       </c>
       <c r="AD3" t="n">
-        <v>86176.7448917599</v>
+        <v>96087.06037049819</v>
       </c>
       <c r="AE3" t="n">
-        <v>117910.8242105215</v>
+        <v>131470.5550607865</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.707643352634865e-06</v>
+        <v>1.178506476896882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.186111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>106657.5806367811</v>
+        <v>118923.1898059029</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.3455245632227</v>
+        <v>157.776086762033</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.9222059642211</v>
+        <v>215.8762024974106</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.9871743775213</v>
+        <v>195.2732807152727</v>
       </c>
       <c r="AD2" t="n">
-        <v>137345.5245632227</v>
+        <v>157776.086762033</v>
       </c>
       <c r="AE2" t="n">
-        <v>187922.2059642211</v>
+        <v>215876.2024974106</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.081045650565499e-06</v>
+        <v>8.688021818567949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.052777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>169987.1743775214</v>
+        <v>195273.2807152727</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.80765154600982</v>
+        <v>98.06564782697629</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.1423026453887</v>
+        <v>134.1777457078564</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.6760899017249</v>
+        <v>121.3720099771833</v>
       </c>
       <c r="AD3" t="n">
-        <v>87807.65154600982</v>
+        <v>98065.64782697629</v>
       </c>
       <c r="AE3" t="n">
-        <v>120142.3026453887</v>
+        <v>134177.7457078564</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.774628684905383e-06</v>
+        <v>1.158386007033879e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.040277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>108676.0899017249</v>
+        <v>121372.0099771833</v>
       </c>
     </row>
   </sheetData>
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.9841913367734</v>
+        <v>231.4506538577415</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.25894914981</v>
+        <v>316.6809954902146</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.274937160867</v>
+        <v>286.4574057452911</v>
       </c>
       <c r="AD2" t="n">
-        <v>198984.1913367735</v>
+        <v>231450.6538577414</v>
       </c>
       <c r="AE2" t="n">
-        <v>272258.94914981</v>
+        <v>316680.9954902146</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.197739913088905e-06</v>
+        <v>6.854229482251592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.274999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>246274.937160867</v>
+        <v>286457.405745291</v>
       </c>
     </row>
   </sheetData>
@@ -11662,28 +11662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.21893347312975</v>
+        <v>106.9754214232883</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.705036722552</v>
+        <v>146.3684910137939</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.1851174283662</v>
+        <v>132.3992876609445</v>
       </c>
       <c r="AD2" t="n">
-        <v>88218.93347312976</v>
+        <v>106975.4214232883</v>
       </c>
       <c r="AE2" t="n">
-        <v>120705.036722552</v>
+        <v>146368.4910137939</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.257972814889396e-06</v>
+        <v>1.152989271794875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.623611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>109185.1174283662</v>
+        <v>132399.2876609445</v>
       </c>
     </row>
     <row r="3">
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.22803951986802</v>
+        <v>106.9845274700265</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.7174960174297</v>
+        <v>146.3809503086716</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.1963876256275</v>
+        <v>132.4105578582058</v>
       </c>
       <c r="AD3" t="n">
-        <v>88228.03951986802</v>
+        <v>106984.5274700265</v>
       </c>
       <c r="AE3" t="n">
-        <v>120717.4960174297</v>
+        <v>146380.9503086716</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.27822198322733e-06</v>
+        <v>1.156720044450336e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.6125</v>
       </c>
       <c r="AH3" t="n">
-        <v>109196.3876256275</v>
+        <v>132410.5578582058</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.89720158790026</v>
+        <v>106.1541378691125</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.8965848464864</v>
+        <v>145.244774622498</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.5492616611736</v>
+        <v>131.3828171848876</v>
       </c>
       <c r="AD2" t="n">
-        <v>86897.20158790026</v>
+        <v>106154.1378691125</v>
       </c>
       <c r="AE2" t="n">
-        <v>118896.5848464865</v>
+        <v>145244.774622498</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.538261194712697e-06</v>
+        <v>1.16801264732943e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>107549.2616611736</v>
+        <v>131382.8171848876</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.42305245189191</v>
+        <v>105.6799887331042</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2478330806166</v>
+        <v>144.5960228566281</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9624258533094</v>
+        <v>130.7959813770233</v>
       </c>
       <c r="AD3" t="n">
-        <v>86423.05245189191</v>
+        <v>105679.9887331042</v>
       </c>
       <c r="AE3" t="n">
-        <v>118247.8330806166</v>
+        <v>144596.0228566281</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.588100775310108e-06</v>
+        <v>1.176916124682467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.313888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>106962.4258533094</v>
+        <v>130795.9813770233</v>
       </c>
     </row>
   </sheetData>
